--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2170</v>
+        <v>2168.19025045373</v>
       </c>
       <c r="C2">
-        <v>2163</v>
+        <v>2167.314610709427</v>
       </c>
       <c r="D2">
-        <v>2162</v>
+        <v>2165.691048665342</v>
       </c>
       <c r="E2">
-        <v>2157</v>
+        <v>2160.906096720676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2184</v>
+        <v>2183.438124058833</v>
       </c>
       <c r="C3">
-        <v>2179</v>
+        <v>2183.632415180711</v>
       </c>
       <c r="D3">
-        <v>2179</v>
+        <v>2183.136329287854</v>
       </c>
       <c r="E3">
-        <v>2175</v>
+        <v>2178.466453297492</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2136</v>
+        <v>2134.223707206921</v>
       </c>
       <c r="C4">
-        <v>2129</v>
+        <v>2131.347061543535</v>
       </c>
       <c r="D4">
-        <v>2124</v>
+        <v>2127.598171040406</v>
       </c>
       <c r="E4">
-        <v>2118</v>
+        <v>2122.310463277523</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186</v>
+        <v>2184.588446198372</v>
       </c>
       <c r="C5">
-        <v>2183</v>
+        <v>2185.449126116547</v>
       </c>
       <c r="D5">
-        <v>2183</v>
+        <v>2185.201902321746</v>
       </c>
       <c r="E5">
-        <v>2178</v>
+        <v>2180.197948453717</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2192</v>
+        <v>2190.810902805146</v>
       </c>
       <c r="C6">
-        <v>2189</v>
+        <v>2191.656695839558</v>
       </c>
       <c r="D6">
-        <v>2190</v>
+        <v>2191.64712965028</v>
       </c>
       <c r="E6">
-        <v>2185</v>
+        <v>2186.955418566179</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2173</v>
+        <v>2172.524713790897</v>
       </c>
       <c r="C7">
-        <v>2171</v>
+        <v>2172.86595052552</v>
       </c>
       <c r="D7">
-        <v>2167</v>
+        <v>2171.940903516458</v>
       </c>
       <c r="E7">
-        <v>2163</v>
+        <v>2166.472776123554</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2174</v>
+        <v>2174.232017974375</v>
       </c>
       <c r="C8">
-        <v>2172</v>
+        <v>2173.684592583933</v>
       </c>
       <c r="D8">
-        <v>2170</v>
+        <v>2172.503856724016</v>
       </c>
       <c r="E8">
-        <v>2165</v>
+        <v>2167.740513980736</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2187</v>
+        <v>2186.103315481719</v>
       </c>
       <c r="C9">
-        <v>2184</v>
+        <v>2187.12321845688</v>
       </c>
       <c r="D9">
-        <v>2185</v>
+        <v>2187.02243935776</v>
       </c>
       <c r="E9">
-        <v>2179</v>
+        <v>2181.940540741372</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1947</v>
+        <v>1946.701420854897</v>
       </c>
       <c r="C10">
-        <v>1934</v>
+        <v>1937.729501449272</v>
       </c>
       <c r="D10">
-        <v>1918</v>
+        <v>1922.900717917014</v>
       </c>
       <c r="E10">
-        <v>1906</v>
+        <v>1908.84393146966</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1896</v>
+        <v>1895.566769401754</v>
       </c>
       <c r="C11">
-        <v>1881</v>
+        <v>1884.386919791947</v>
       </c>
       <c r="D11">
-        <v>1864</v>
+        <v>1866.433802825766</v>
       </c>
       <c r="E11">
-        <v>1847</v>
+        <v>1850.571204774973</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1636</v>
+        <v>1637.698552672618</v>
       </c>
       <c r="C12">
-        <v>1612</v>
+        <v>1614.595651276729</v>
       </c>
       <c r="D12">
-        <v>1579</v>
+        <v>1582.176651645972</v>
       </c>
       <c r="E12">
-        <v>1554</v>
+        <v>1557.822975848908</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1928</v>
+        <v>1929.418281600073</v>
       </c>
       <c r="C13">
-        <v>1915</v>
+        <v>1919.499697099683</v>
       </c>
       <c r="D13">
-        <v>1899</v>
+        <v>1903.651813317016</v>
       </c>
       <c r="E13">
-        <v>1885</v>
+        <v>1889.092437598045</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2168.19025045373</v>
+        <v>2161.664478555412</v>
       </c>
       <c r="C2">
-        <v>2167.314610709427</v>
+        <v>2160.405016793821</v>
       </c>
       <c r="D2">
-        <v>2165.691048665342</v>
+        <v>2158.314632180927</v>
       </c>
       <c r="E2">
-        <v>2160.906096720676</v>
+        <v>2153.404674655214</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2183.438124058833</v>
+        <v>2174.162251111631</v>
       </c>
       <c r="C3">
-        <v>2183.632415180711</v>
+        <v>2173.726722037044</v>
       </c>
       <c r="D3">
-        <v>2183.136329287854</v>
+        <v>2172.64565425552</v>
       </c>
       <c r="E3">
-        <v>2178.466453297492</v>
+        <v>2167.919267104751</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2134.223707206921</v>
+        <v>2137.053585636186</v>
       </c>
       <c r="C4">
-        <v>2131.347061543535</v>
+        <v>2134.412564788786</v>
       </c>
       <c r="D4">
-        <v>2127.598171040406</v>
+        <v>2130.866972544521</v>
       </c>
       <c r="E4">
-        <v>2122.310463277523</v>
+        <v>2125.536400114443</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2184.588446198372</v>
+        <v>2185.644299389824</v>
       </c>
       <c r="C5">
-        <v>2185.449126116547</v>
+        <v>2186.478507089998</v>
       </c>
       <c r="D5">
-        <v>2185.201902321746</v>
+        <v>2186.274134002823</v>
       </c>
       <c r="E5">
-        <v>2180.197948453717</v>
+        <v>2181.355091771743</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2190.810902805146</v>
+        <v>2189.171813444799</v>
       </c>
       <c r="C6">
-        <v>2191.656695839558</v>
+        <v>2189.868220314056</v>
       </c>
       <c r="D6">
-        <v>2191.64712965028</v>
+        <v>2189.702783941383</v>
       </c>
       <c r="E6">
-        <v>2186.955418566179</v>
+        <v>2185.000876852311</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2172.524713790897</v>
+        <v>2180.977037182337</v>
       </c>
       <c r="C7">
-        <v>2172.86595052552</v>
+        <v>2181.624468065697</v>
       </c>
       <c r="D7">
-        <v>2171.940903516458</v>
+        <v>2181.143966263551</v>
       </c>
       <c r="E7">
-        <v>2166.472776123554</v>
+        <v>2175.990753315459</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2174.232017974375</v>
+        <v>2177.083779136897</v>
       </c>
       <c r="C8">
-        <v>2173.684592583933</v>
+        <v>2176.82140227915</v>
       </c>
       <c r="D8">
-        <v>2172.503856724016</v>
+        <v>2175.760360169388</v>
       </c>
       <c r="E8">
-        <v>2167.740513980736</v>
+        <v>2170.976848992308</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2186.103315481719</v>
+        <v>2174.894018305539</v>
       </c>
       <c r="C9">
-        <v>2187.12321845688</v>
+        <v>2175.265994821138</v>
       </c>
       <c r="D9">
-        <v>2187.02243935776</v>
+        <v>2174.481886389158</v>
       </c>
       <c r="E9">
-        <v>2181.940540741372</v>
+        <v>2169.177195852759</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1946.701420854897</v>
+        <v>1982.268981882027</v>
       </c>
       <c r="C10">
-        <v>1937.729501449272</v>
+        <v>1974.722720468327</v>
       </c>
       <c r="D10">
-        <v>1922.900717917014</v>
+        <v>1962.141316747406</v>
       </c>
       <c r="E10">
-        <v>1908.84393146966</v>
+        <v>1949.395255588504</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1895.566769401754</v>
+        <v>1934.783579288838</v>
       </c>
       <c r="C11">
-        <v>1884.386919791947</v>
+        <v>1925.147921430981</v>
       </c>
       <c r="D11">
-        <v>1866.433802825766</v>
+        <v>1909.651753793775</v>
       </c>
       <c r="E11">
-        <v>1850.571204774973</v>
+        <v>1895.211886520799</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1637.698552672618</v>
+        <v>1603.012079542819</v>
       </c>
       <c r="C12">
-        <v>1614.595651276729</v>
+        <v>1580.0215196259</v>
       </c>
       <c r="D12">
-        <v>1582.176651645972</v>
+        <v>1545.784212571943</v>
       </c>
       <c r="E12">
-        <v>1557.822975848908</v>
+        <v>1520.241850483013</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1929.418281600073</v>
+        <v>1935.184036372269</v>
       </c>
       <c r="C13">
-        <v>1919.499697099683</v>
+        <v>1925.585034755581</v>
       </c>
       <c r="D13">
-        <v>1903.651813317016</v>
+        <v>1910.114501071451</v>
       </c>
       <c r="E13">
-        <v>1889.092437598045</v>
+        <v>1895.667320934123</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2161.664478555412</v>
+        <v>2162</v>
       </c>
       <c r="C2">
-        <v>2160.405016793821</v>
+        <v>2160</v>
       </c>
       <c r="D2">
-        <v>2158.314632180927</v>
+        <v>2158</v>
       </c>
       <c r="E2">
-        <v>2153.404674655214</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2174.162251111631</v>
+        <v>2174</v>
       </c>
       <c r="C3">
-        <v>2173.726722037044</v>
+        <v>2174</v>
       </c>
       <c r="D3">
-        <v>2172.64565425552</v>
+        <v>2173</v>
       </c>
       <c r="E3">
-        <v>2167.919267104751</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2137.053585636186</v>
+        <v>2137</v>
       </c>
       <c r="C4">
-        <v>2134.412564788786</v>
+        <v>2134</v>
       </c>
       <c r="D4">
-        <v>2130.866972544521</v>
+        <v>2131</v>
       </c>
       <c r="E4">
-        <v>2125.536400114443</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2185.644299389824</v>
+        <v>2186</v>
       </c>
       <c r="C5">
-        <v>2186.478507089998</v>
+        <v>2186</v>
       </c>
       <c r="D5">
-        <v>2186.274134002823</v>
+        <v>2186</v>
       </c>
       <c r="E5">
-        <v>2181.355091771743</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2189.171813444799</v>
+        <v>2189</v>
       </c>
       <c r="C6">
-        <v>2189.868220314056</v>
+        <v>2190</v>
       </c>
       <c r="D6">
-        <v>2189.702783941383</v>
+        <v>2190</v>
       </c>
       <c r="E6">
-        <v>2185.000876852311</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2180.977037182337</v>
+        <v>2181</v>
       </c>
       <c r="C7">
-        <v>2181.624468065697</v>
+        <v>2182</v>
       </c>
       <c r="D7">
-        <v>2181.143966263551</v>
+        <v>2181</v>
       </c>
       <c r="E7">
-        <v>2175.990753315459</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2177.083779136897</v>
+        <v>2177</v>
       </c>
       <c r="C8">
-        <v>2176.82140227915</v>
+        <v>2177</v>
       </c>
       <c r="D8">
-        <v>2175.760360169388</v>
+        <v>2176</v>
       </c>
       <c r="E8">
-        <v>2170.976848992308</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2174.894018305539</v>
+        <v>2175</v>
       </c>
       <c r="C9">
-        <v>2175.265994821138</v>
+        <v>2175</v>
       </c>
       <c r="D9">
-        <v>2174.481886389158</v>
+        <v>2174</v>
       </c>
       <c r="E9">
-        <v>2169.177195852759</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1982.268981882027</v>
+        <v>1982</v>
       </c>
       <c r="C10">
-        <v>1974.722720468327</v>
+        <v>1975</v>
       </c>
       <c r="D10">
-        <v>1962.141316747406</v>
+        <v>1962</v>
       </c>
       <c r="E10">
-        <v>1949.395255588504</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1934.783579288838</v>
+        <v>1935</v>
       </c>
       <c r="C11">
-        <v>1925.147921430981</v>
+        <v>1925</v>
       </c>
       <c r="D11">
-        <v>1909.651753793775</v>
+        <v>1910</v>
       </c>
       <c r="E11">
-        <v>1895.211886520799</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1603.012079542819</v>
+        <v>1603</v>
       </c>
       <c r="C12">
-        <v>1580.0215196259</v>
+        <v>1580</v>
       </c>
       <c r="D12">
-        <v>1545.784212571943</v>
+        <v>1546</v>
       </c>
       <c r="E12">
-        <v>1520.241850483013</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1935.184036372269</v>
+        <v>1935</v>
       </c>
       <c r="C13">
-        <v>1925.585034755581</v>
+        <v>1926</v>
       </c>
       <c r="D13">
-        <v>1910.114501071451</v>
+        <v>1910</v>
       </c>
       <c r="E13">
-        <v>1895.667320934123</v>
+        <v>1896</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
@@ -394,7 +394,7 @@
         <v>2160.405016793821</v>
       </c>
       <c r="D2">
-        <v>2158.314632180927</v>
+        <v>2158.314632180928</v>
       </c>
       <c r="E2">
         <v>2153.404674655214</v>
@@ -408,13 +408,13 @@
         <v>2174.162251111631</v>
       </c>
       <c r="C3">
-        <v>2173.726722037044</v>
+        <v>2173.726722037045</v>
       </c>
       <c r="D3">
         <v>2172.64565425552</v>
       </c>
       <c r="E3">
-        <v>2167.919267104751</v>
+        <v>2167.91926710475</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2137.053585636186</v>
+        <v>2137.053585636187</v>
       </c>
       <c r="C4">
         <v>2134.412564788786</v>
@@ -442,10 +442,10 @@
         <v>2185.644299389824</v>
       </c>
       <c r="C5">
-        <v>2186.478507089998</v>
+        <v>2186.478507089997</v>
       </c>
       <c r="D5">
-        <v>2186.274134002823</v>
+        <v>2186.274134002822</v>
       </c>
       <c r="E5">
         <v>2181.355091771743</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2180.977037182337</v>
+        <v>2180.977037182338</v>
       </c>
       <c r="C7">
         <v>2181.624468065697</v>
@@ -496,7 +496,7 @@
         <v>2176.82140227915</v>
       </c>
       <c r="D8">
-        <v>2175.760360169388</v>
+        <v>2175.760360169387</v>
       </c>
       <c r="E8">
         <v>2170.976848992308</v>
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2174.894018305539</v>
+        <v>2174.89401830554</v>
       </c>
       <c r="C9">
         <v>2175.265994821138</v>
